--- a/Availability_data.xlsx
+++ b/Availability_data.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27717"/>
   <workbookPr updateLinks="always"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computeraccount/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFFCDB-C9AD-3849-93BF-7CDA9104C6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8373372E-9ADC-4D78-829E-5C58A1634FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="25180" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Availability" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -385,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +599,164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls driveId="b!FIbPH-Pu9Eyrc8RKOTal9nHZHzEgTQZDsBjUGqsm7_jfCt3jSN55SKOn6inQGSNV" itemId="01THIIK233P4CLHMK3G5HIHPMST3VIADH3">
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TESTSHEET"/>
+      <sheetName val="Wildnis u. Panorama"/>
+      <sheetName val="Transfers_important infos"/>
+      <sheetName val="Mökki Bookings"/>
+      <sheetName val="Gesamtdaten"/>
+      <sheetName val="Wildnis u. Panorama"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ab" sheetId="1"/>
+      <definedName name="l" sheetId="1"/>
+      <definedName name="n" sheetId="1"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="A35"/>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>3</v>
+          </cell>
+          <cell r="F35">
+            <v>1</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="H35">
+            <v>2</v>
+          </cell>
+          <cell r="I35">
+            <v>0</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>2</v>
+          </cell>
+          <cell r="L35">
+            <v>2</v>
+          </cell>
+          <cell r="M35">
+            <v>11</v>
+          </cell>
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>0</v>
+          </cell>
+          <cell r="P35">
+            <v>10</v>
+          </cell>
+          <cell r="Q35">
+            <v>0</v>
+          </cell>
+          <cell r="R35">
+            <v>10</v>
+          </cell>
+          <cell r="S35">
+            <v>0</v>
+          </cell>
+          <cell r="T35">
+            <v>2</v>
+          </cell>
+          <cell r="U35">
+            <v>2</v>
+          </cell>
+          <cell r="V35">
+            <v>0</v>
+          </cell>
+          <cell r="W35">
+            <v>6</v>
+          </cell>
+          <cell r="X35">
+            <v>0</v>
+          </cell>
+          <cell r="Y35">
+            <v>2</v>
+          </cell>
+          <cell r="Z35">
+            <v>11</v>
+          </cell>
+          <cell r="AA35">
+            <v>4</v>
+          </cell>
+          <cell r="AB35">
+            <v>11</v>
+          </cell>
+          <cell r="AC35">
+            <v>2</v>
+          </cell>
+          <cell r="AD35">
+            <v>7</v>
+          </cell>
+          <cell r="AE35">
+            <v>4</v>
+          </cell>
+          <cell r="AF35">
+            <v>2</v>
+          </cell>
+          <cell r="AG35">
+            <v>2</v>
+          </cell>
+          <cell r="AH35">
+            <v>11</v>
+          </cell>
+          <cell r="AI35">
+            <v>2</v>
+          </cell>
+          <cell r="AJ35">
+            <v>0</v>
+          </cell>
+          <cell r="AK35">
+            <v>0</v>
+          </cell>
+          <cell r="AL35">
+            <v>0</v>
+          </cell>
+          <cell r="AM35">
+            <v>2</v>
+          </cell>
+          <cell r="AN35">
+            <v>0</v>
+          </cell>
+          <cell r="AO35">
+            <v>3</v>
+          </cell>
+          <cell r="AP35">
+            <v>0</v>
+          </cell>
+          <cell r="AQ35">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,12 +1082,12 @@
       <selection sqref="A1:AO5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="41" width="10.6640625" customWidth="1"/>
+    <col min="1" max="41" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1337,7 @@
         <v>45995</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1306,7 +1462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1431,128 +1587,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="15.75">
       <c r="A5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
         <v>24</v>
       </c>
       <c r="B5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
         <v>24</v>
       </c>
       <c r="C5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
       <c r="D5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
       <c r="E5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
         <v>24</v>
       </c>
       <c r="F5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
         <v>22</v>
       </c>
       <c r="G5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
         <v>24</v>
       </c>
       <c r="H5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
         <v>24</v>
       </c>
       <c r="I5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
       <c r="J5" s="10">
-        <v>23</v>
+        <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
+        <v>22</v>
       </c>
       <c r="K5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
+        <v>13</v>
+      </c>
+      <c r="L5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
+        <v>24</v>
+      </c>
+      <c r="M5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
+        <v>24</v>
+      </c>
+      <c r="N5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
         <v>14</v>
       </c>
-      <c r="L5" s="10">
-        <v>24</v>
-      </c>
-      <c r="M5" s="10">
-        <v>24</v>
-      </c>
-      <c r="N5" s="10">
-        <v>16</v>
-      </c>
       <c r="O5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
+        <v>24</v>
+      </c>
+      <c r="P5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
+        <v>14</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
+        <v>24</v>
+      </c>
+      <c r="R5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
         <v>22</v>
       </c>
-      <c r="P5" s="10">
+      <c r="S5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
+        <v>22</v>
+      </c>
+      <c r="T5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
+        <v>24</v>
+      </c>
+      <c r="U5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
+        <v>18</v>
+      </c>
+      <c r="V5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
+        <v>24</v>
+      </c>
+      <c r="W5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
+        <v>22</v>
+      </c>
+      <c r="X5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
+        <v>13</v>
+      </c>
+      <c r="Y5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
+        <v>20</v>
+      </c>
+      <c r="Z5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
+        <v>13</v>
+      </c>
+      <c r="AA5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
+        <v>22</v>
+      </c>
+      <c r="AB5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
         <v>17</v>
       </c>
-      <c r="Q5" s="10">
-        <v>24</v>
-      </c>
-      <c r="R5" s="10">
+      <c r="AC5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
+        <v>20</v>
+      </c>
+      <c r="AD5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
         <v>22</v>
       </c>
-      <c r="S5" s="10">
+      <c r="AE5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
         <v>22</v>
       </c>
-      <c r="T5" s="10">
-        <v>24</v>
-      </c>
-      <c r="U5" s="10">
-        <v>24</v>
-      </c>
-      <c r="V5" s="10">
-        <v>24</v>
-      </c>
-      <c r="W5" s="10">
+      <c r="AF5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
+        <v>13</v>
+      </c>
+      <c r="AG5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
         <v>22</v>
       </c>
-      <c r="X5" s="10">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="10">
+      <c r="AH5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
+        <v>24</v>
+      </c>
+      <c r="AI5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
+        <v>24</v>
+      </c>
+      <c r="AK5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
         <v>22</v>
       </c>
-      <c r="AA5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>20</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>13</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>22</v>
-      </c>
       <c r="AL5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
         <v>24</v>
       </c>
       <c r="AM5" s="10">
-        <v>22</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
+        <v>21</v>
       </c>
       <c r="AN5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
         <v>24</v>
       </c>
       <c r="AO5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
         <v>24</v>
       </c>
     </row>
@@ -1566,18 +1763,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF6A47-9922-40E3-A5C5-3CD13C301FDA}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
@@ -1597,7 +1796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1611,13 +1810,14 @@
         <v>43</v>
       </c>
       <c r="E2" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
         <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1631,13 +1831,14 @@
         <v>45394</v>
       </c>
       <c r="E3" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
         <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1651,13 +1852,14 @@
         <v>45485</v>
       </c>
       <c r="E4" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1671,13 +1873,14 @@
         <v>45608</v>
       </c>
       <c r="E5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1691,13 +1894,14 @@
         <v>44</v>
       </c>
       <c r="E6" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
         <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1711,13 +1915,14 @@
         <v>45</v>
       </c>
       <c r="E7" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
         <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1731,13 +1936,14 @@
         <v>46</v>
       </c>
       <c r="E8" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
         <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1751,13 +1957,14 @@
         <v>47</v>
       </c>
       <c r="E9" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
         <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1771,13 +1978,14 @@
         <v>48</v>
       </c>
       <c r="E10" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1791,13 +1999,14 @@
         <v>45658</v>
       </c>
       <c r="E11" s="10">
-        <v>23</v>
+        <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1811,13 +2020,14 @@
         <v>45748</v>
       </c>
       <c r="E12" s="10">
-        <v>14</v>
+        <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1831,13 +2041,14 @@
         <v>45870</v>
       </c>
       <c r="E13" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
         <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1851,13 +2062,14 @@
         <v>45962</v>
       </c>
       <c r="E14" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
         <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1871,13 +2083,14 @@
         <v>49</v>
       </c>
       <c r="E15" s="10">
-        <v>16</v>
+        <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1891,13 +2104,14 @@
         <v>50</v>
       </c>
       <c r="E16" s="10">
-        <v>22</v>
+        <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1911,13 +2125,14 @@
         <v>51</v>
       </c>
       <c r="E17" s="10">
-        <v>17</v>
+        <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1931,13 +2146,14 @@
         <v>52</v>
       </c>
       <c r="E18" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
         <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1951,13 +2167,14 @@
         <v>53</v>
       </c>
       <c r="E19" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
         <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1971,13 +2188,14 @@
         <v>45659</v>
       </c>
       <c r="E20" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
         <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1991,13 +2209,14 @@
         <v>45779</v>
       </c>
       <c r="E21" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
         <v>24</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2230,14 @@
         <v>45871</v>
       </c>
       <c r="E22" s="10">
-        <v>24</v>
+        <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2031,13 +2251,14 @@
         <v>45993</v>
       </c>
       <c r="E23" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
         <v>24</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -2051,13 +2272,14 @@
         <v>54</v>
       </c>
       <c r="E24" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
         <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2071,13 +2293,14 @@
         <v>55</v>
       </c>
       <c r="E25" s="10">
-        <v>17</v>
+        <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2091,13 +2314,14 @@
         <v>56</v>
       </c>
       <c r="E26" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
         <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2111,13 +2335,14 @@
         <v>57</v>
       </c>
       <c r="E27" s="10">
-        <v>22</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2131,13 +2356,14 @@
         <v>45660</v>
       </c>
       <c r="E28" s="10">
-        <v>24</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2151,13 +2377,14 @@
         <v>45780</v>
       </c>
       <c r="E29" s="10">
-        <v>20</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2171,13 +2398,14 @@
         <v>45872</v>
       </c>
       <c r="E30" s="10">
-        <v>22</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2191,13 +2419,14 @@
         <v>45994</v>
       </c>
       <c r="E31" s="10">
-        <v>24</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.75">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2211,13 +2440,14 @@
         <v>58</v>
       </c>
       <c r="E32" s="10">
-        <v>24</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2231,13 +2461,14 @@
         <v>59</v>
       </c>
       <c r="E33" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
         <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2251,13 +2482,14 @@
         <v>60</v>
       </c>
       <c r="E34" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
         <v>22</v>
       </c>
       <c r="F34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2271,13 +2503,14 @@
         <v>61</v>
       </c>
       <c r="E35" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
         <v>24</v>
       </c>
       <c r="F35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2291,13 +2524,14 @@
         <v>62</v>
       </c>
       <c r="E36" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
         <v>24</v>
       </c>
       <c r="F36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="15" t="s">
         <v>35</v>
       </c>
@@ -2311,13 +2545,14 @@
         <v>45692</v>
       </c>
       <c r="E37" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
         <v>24</v>
       </c>
       <c r="F37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2331,13 +2566,14 @@
         <v>45781</v>
       </c>
       <c r="E38" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
         <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2351,13 +2587,14 @@
         <v>45904</v>
       </c>
       <c r="E39" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
         <v>24</v>
       </c>
       <c r="F39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2371,13 +2608,14 @@
         <v>45995</v>
       </c>
       <c r="E40" s="10">
-        <v>22</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2391,13 +2629,14 @@
         <v>63</v>
       </c>
       <c r="E41" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
         <v>24</v>
       </c>
       <c r="F41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2411,6 +2650,7 @@
         <v>64</v>
       </c>
       <c r="E42" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
         <v>24</v>
       </c>
       <c r="F42" t="s">

--- a/Availability_data.xlsx
+++ b/Availability_data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr updateLinks="always"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8373372E-9ADC-4D78-829E-5C58A1634FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computeraccount/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFFCDB-C9AD-3849-93BF-7CDA9104C6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="780" windowWidth="25180" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Availability" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -383,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,164 +601,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls driveId="b!FIbPH-Pu9Eyrc8RKOTal9nHZHzEgTQZDsBjUGqsm7_jfCt3jSN55SKOn6inQGSNV" itemId="01THIIK233P4CLHMK3G5HIHPMST3VIADH3">
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="TESTSHEET"/>
-      <sheetName val="Wildnis u. Panorama"/>
-      <sheetName val="Transfers_important infos"/>
-      <sheetName val="Mökki Bookings"/>
-      <sheetName val="Gesamtdaten"/>
-      <sheetName val="Wildnis u. Panorama"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="ab" sheetId="1"/>
-      <definedName name="l" sheetId="1"/>
-      <definedName name="n" sheetId="1"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="35">
-          <cell r="A35"/>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-          <cell r="E35">
-            <v>3</v>
-          </cell>
-          <cell r="F35">
-            <v>1</v>
-          </cell>
-          <cell r="G35">
-            <v>0</v>
-          </cell>
-          <cell r="H35">
-            <v>2</v>
-          </cell>
-          <cell r="I35">
-            <v>0</v>
-          </cell>
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-          <cell r="K35">
-            <v>2</v>
-          </cell>
-          <cell r="L35">
-            <v>2</v>
-          </cell>
-          <cell r="M35">
-            <v>11</v>
-          </cell>
-          <cell r="N35">
-            <v>0</v>
-          </cell>
-          <cell r="O35">
-            <v>0</v>
-          </cell>
-          <cell r="P35">
-            <v>10</v>
-          </cell>
-          <cell r="Q35">
-            <v>0</v>
-          </cell>
-          <cell r="R35">
-            <v>10</v>
-          </cell>
-          <cell r="S35">
-            <v>0</v>
-          </cell>
-          <cell r="T35">
-            <v>2</v>
-          </cell>
-          <cell r="U35">
-            <v>2</v>
-          </cell>
-          <cell r="V35">
-            <v>0</v>
-          </cell>
-          <cell r="W35">
-            <v>6</v>
-          </cell>
-          <cell r="X35">
-            <v>0</v>
-          </cell>
-          <cell r="Y35">
-            <v>2</v>
-          </cell>
-          <cell r="Z35">
-            <v>11</v>
-          </cell>
-          <cell r="AA35">
-            <v>4</v>
-          </cell>
-          <cell r="AB35">
-            <v>11</v>
-          </cell>
-          <cell r="AC35">
-            <v>2</v>
-          </cell>
-          <cell r="AD35">
-            <v>7</v>
-          </cell>
-          <cell r="AE35">
-            <v>4</v>
-          </cell>
-          <cell r="AF35">
-            <v>2</v>
-          </cell>
-          <cell r="AG35">
-            <v>2</v>
-          </cell>
-          <cell r="AH35">
-            <v>11</v>
-          </cell>
-          <cell r="AI35">
-            <v>2</v>
-          </cell>
-          <cell r="AJ35">
-            <v>0</v>
-          </cell>
-          <cell r="AK35">
-            <v>0</v>
-          </cell>
-          <cell r="AL35">
-            <v>0</v>
-          </cell>
-          <cell r="AM35">
-            <v>2</v>
-          </cell>
-          <cell r="AN35">
-            <v>0</v>
-          </cell>
-          <cell r="AO35">
-            <v>3</v>
-          </cell>
-          <cell r="AP35">
-            <v>0</v>
-          </cell>
-          <cell r="AQ35">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,12 +926,12 @@
       <selection sqref="A1:AO5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="41" width="10.7109375" customWidth="1"/>
+    <col min="1" max="41" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1337,7 +1181,7 @@
         <v>45995</v>
       </c>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1462,7 +1306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1587,169 +1431,128 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75">
+    <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
         <v>24</v>
       </c>
       <c r="B5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
         <v>24</v>
       </c>
       <c r="C5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
       <c r="D5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
       <c r="E5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
         <v>24</v>
       </c>
       <c r="F5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
         <v>22</v>
       </c>
       <c r="G5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
         <v>24</v>
       </c>
       <c r="H5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
         <v>24</v>
       </c>
       <c r="I5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
       <c r="J5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
+        <v>23</v>
+      </c>
+      <c r="K5" s="10">
+        <v>14</v>
+      </c>
+      <c r="L5" s="10">
+        <v>24</v>
+      </c>
+      <c r="M5" s="10">
+        <v>24</v>
+      </c>
+      <c r="N5" s="10">
+        <v>16</v>
+      </c>
+      <c r="O5" s="10">
         <v>22</v>
       </c>
-      <c r="K5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
+      <c r="P5" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>24</v>
+      </c>
+      <c r="R5" s="10">
+        <v>22</v>
+      </c>
+      <c r="S5" s="10">
+        <v>22</v>
+      </c>
+      <c r="T5" s="10">
+        <v>24</v>
+      </c>
+      <c r="U5" s="10">
+        <v>24</v>
+      </c>
+      <c r="V5" s="10">
+        <v>24</v>
+      </c>
+      <c r="W5" s="10">
+        <v>22</v>
+      </c>
+      <c r="X5" s="10">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="10">
         <v>13</v>
       </c>
-      <c r="L5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
-        <v>24</v>
-      </c>
-      <c r="M5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
-        <v>24</v>
-      </c>
-      <c r="N5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
-        <v>14</v>
-      </c>
-      <c r="O5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
-        <v>24</v>
-      </c>
-      <c r="P5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
-        <v>14</v>
-      </c>
-      <c r="Q5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
-        <v>24</v>
-      </c>
-      <c r="R5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
+      <c r="AG5" s="10">
         <v>22</v>
       </c>
-      <c r="S5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
+      <c r="AH5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AK5" s="10">
         <v>22</v>
       </c>
-      <c r="T5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
-        <v>24</v>
-      </c>
-      <c r="U5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
-        <v>18</v>
-      </c>
-      <c r="V5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
-        <v>24</v>
-      </c>
-      <c r="W5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
+      <c r="AL5" s="10">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="10">
         <v>22</v>
       </c>
-      <c r="X5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
-        <v>13</v>
-      </c>
-      <c r="Y5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
-        <v>20</v>
-      </c>
-      <c r="Z5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
-        <v>13</v>
-      </c>
-      <c r="AA5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
-        <v>22</v>
-      </c>
-      <c r="AB5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
-        <v>17</v>
-      </c>
-      <c r="AC5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
-        <v>20</v>
-      </c>
-      <c r="AD5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
-        <v>22</v>
-      </c>
-      <c r="AE5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
-        <v>22</v>
-      </c>
-      <c r="AF5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
-        <v>13</v>
-      </c>
-      <c r="AG5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
-        <v>22</v>
-      </c>
-      <c r="AH5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
-        <v>24</v>
-      </c>
-      <c r="AI5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
-        <v>24</v>
-      </c>
-      <c r="AK5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
-        <v>22</v>
-      </c>
-      <c r="AL5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
-        <v>24</v>
-      </c>
-      <c r="AM5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
-        <v>21</v>
-      </c>
       <c r="AN5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
         <v>24</v>
       </c>
       <c r="AO5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
         <v>24</v>
       </c>
     </row>
@@ -1763,20 +1566,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF6A47-9922-40E3-A5C5-3CD13C301FDA}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
@@ -1796,7 +1597,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1810,14 +1611,13 @@
         <v>43</v>
       </c>
       <c r="E2" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
         <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1831,14 +1631,13 @@
         <v>45394</v>
       </c>
       <c r="E3" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
         <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1852,14 +1651,13 @@
         <v>45485</v>
       </c>
       <c r="E4" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1873,14 +1671,13 @@
         <v>45608</v>
       </c>
       <c r="E5" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1894,14 +1691,13 @@
         <v>44</v>
       </c>
       <c r="E6" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
         <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1915,14 +1711,13 @@
         <v>45</v>
       </c>
       <c r="E7" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
         <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1936,14 +1731,13 @@
         <v>46</v>
       </c>
       <c r="E8" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
         <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1957,14 +1751,13 @@
         <v>47</v>
       </c>
       <c r="E9" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
         <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1978,14 +1771,13 @@
         <v>48</v>
       </c>
       <c r="E10" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1999,14 +1791,13 @@
         <v>45658</v>
       </c>
       <c r="E11" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2020,14 +1811,13 @@
         <v>45748</v>
       </c>
       <c r="E12" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -2041,14 +1831,13 @@
         <v>45870</v>
       </c>
       <c r="E13" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
         <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2062,14 +1851,13 @@
         <v>45962</v>
       </c>
       <c r="E14" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
         <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2083,14 +1871,13 @@
         <v>49</v>
       </c>
       <c r="E15" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -2104,14 +1891,13 @@
         <v>50</v>
       </c>
       <c r="E16" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2125,14 +1911,13 @@
         <v>51</v>
       </c>
       <c r="E17" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2146,14 +1931,13 @@
         <v>52</v>
       </c>
       <c r="E18" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
         <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2167,14 +1951,13 @@
         <v>53</v>
       </c>
       <c r="E19" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
         <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -2188,14 +1971,13 @@
         <v>45659</v>
       </c>
       <c r="E20" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
         <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2209,14 +1991,13 @@
         <v>45779</v>
       </c>
       <c r="E21" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
         <v>24</v>
       </c>
       <c r="F21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -2230,14 +2011,13 @@
         <v>45871</v>
       </c>
       <c r="E22" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2251,14 +2031,13 @@
         <v>45993</v>
       </c>
       <c r="E23" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
         <v>24</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -2272,14 +2051,13 @@
         <v>54</v>
       </c>
       <c r="E24" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
         <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -2293,14 +2071,13 @@
         <v>55</v>
       </c>
       <c r="E25" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2314,14 +2091,13 @@
         <v>56</v>
       </c>
       <c r="E26" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
         <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -2335,14 +2111,13 @@
         <v>57</v>
       </c>
       <c r="E27" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2356,14 +2131,13 @@
         <v>45660</v>
       </c>
       <c r="E28" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2377,14 +2151,13 @@
         <v>45780</v>
       </c>
       <c r="E29" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -2398,14 +2171,13 @@
         <v>45872</v>
       </c>
       <c r="E30" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -2419,14 +2191,13 @@
         <v>45994</v>
       </c>
       <c r="E31" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -2440,14 +2211,13 @@
         <v>58</v>
       </c>
       <c r="E32" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -2461,14 +2231,13 @@
         <v>59</v>
       </c>
       <c r="E33" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
         <v>13</v>
       </c>
       <c r="F33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2482,14 +2251,13 @@
         <v>60</v>
       </c>
       <c r="E34" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
         <v>22</v>
       </c>
       <c r="F34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -2503,14 +2271,13 @@
         <v>61</v>
       </c>
       <c r="E35" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
         <v>24</v>
       </c>
       <c r="F35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -2524,14 +2291,13 @@
         <v>62</v>
       </c>
       <c r="E36" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
         <v>24</v>
       </c>
       <c r="F36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>35</v>
       </c>
@@ -2545,14 +2311,13 @@
         <v>45692</v>
       </c>
       <c r="E37" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
         <v>24</v>
       </c>
       <c r="F37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -2566,14 +2331,13 @@
         <v>45781</v>
       </c>
       <c r="E38" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
         <v>22</v>
       </c>
       <c r="F38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -2587,14 +2351,13 @@
         <v>45904</v>
       </c>
       <c r="E39" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
         <v>24</v>
       </c>
       <c r="F39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -2608,14 +2371,13 @@
         <v>45995</v>
       </c>
       <c r="E40" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2629,14 +2391,13 @@
         <v>63</v>
       </c>
       <c r="E41" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
         <v>24</v>
       </c>
       <c r="F41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -2650,7 +2411,6 @@
         <v>64</v>
       </c>
       <c r="E42" s="10">
-        <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
         <v>24</v>
       </c>
       <c r="F42" t="s">

--- a/Availability_data.xlsx
+++ b/Availability_data.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27719"/>
   <workbookPr updateLinks="always"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/computeraccount/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFFCDB-C9AD-3849-93BF-7CDA9104C6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{D9264504-8FAA-4E62-965B-B016D01F8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72691730-01ED-4CEE-A2BB-BDA62B11D9BB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="25180" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Availability" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="115">
   <si>
     <t>23.11.-30.11.</t>
   </si>
@@ -246,13 +244,13 @@
     <t>Weekday</t>
   </si>
   <si>
-    <t>Starts</t>
-  </si>
-  <si>
-    <t>Ends</t>
-  </si>
-  <si>
-    <t>Available</t>
+    <t>Starts on</t>
+  </si>
+  <si>
+    <t>Ends on</t>
+  </si>
+  <si>
+    <t>Free</t>
   </si>
   <si>
     <t>ProductCode</t>
@@ -271,6 +269,9 @@
   </si>
   <si>
     <t>AWSA071224</t>
+  </si>
+  <si>
+    <t>18/01/2024</t>
   </si>
   <si>
     <t>AWWE111224</t>
@@ -385,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +449,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -544,22 +551,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -575,17 +571,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,6 +606,156 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls driveId="b!FIbPH-Pu9Eyrc8RKOTal9nHZHzEgTQZDsBjUGqsm7_jfCt3jSN55SKOn6inQGSNV" itemId="01THIIK233P4CLHMK3G5HIHPMST3VIADH3">
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TESTSHEET"/>
+      <sheetName val="Wildnis u. Panorama"/>
+      <sheetName val="Transfers_important infos"/>
+      <sheetName val="Mökki Bookings"/>
+      <sheetName val="Gesamtdaten"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="35">
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>3</v>
+          </cell>
+          <cell r="F35">
+            <v>1</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="H35">
+            <v>2</v>
+          </cell>
+          <cell r="I35">
+            <v>0</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>2</v>
+          </cell>
+          <cell r="L35">
+            <v>6</v>
+          </cell>
+          <cell r="M35">
+            <v>13</v>
+          </cell>
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>0</v>
+          </cell>
+          <cell r="P35">
+            <v>10</v>
+          </cell>
+          <cell r="Q35">
+            <v>0</v>
+          </cell>
+          <cell r="R35">
+            <v>12</v>
+          </cell>
+          <cell r="S35">
+            <v>2</v>
+          </cell>
+          <cell r="T35">
+            <v>2</v>
+          </cell>
+          <cell r="U35">
+            <v>2</v>
+          </cell>
+          <cell r="V35">
+            <v>0</v>
+          </cell>
+          <cell r="W35">
+            <v>0</v>
+          </cell>
+          <cell r="X35">
+            <v>0</v>
+          </cell>
+          <cell r="Y35">
+            <v>2</v>
+          </cell>
+          <cell r="Z35">
+            <v>11</v>
+          </cell>
+          <cell r="AA35">
+            <v>4</v>
+          </cell>
+          <cell r="AB35">
+            <v>2</v>
+          </cell>
+          <cell r="AC35">
+            <v>2</v>
+          </cell>
+          <cell r="AD35">
+            <v>7</v>
+          </cell>
+          <cell r="AE35">
+            <v>4</v>
+          </cell>
+          <cell r="AF35">
+            <v>2</v>
+          </cell>
+          <cell r="AG35">
+            <v>4</v>
+          </cell>
+          <cell r="AH35">
+            <v>11</v>
+          </cell>
+          <cell r="AI35">
+            <v>2</v>
+          </cell>
+          <cell r="AJ35">
+            <v>0</v>
+          </cell>
+          <cell r="AK35">
+            <v>0</v>
+          </cell>
+          <cell r="AL35">
+            <v>0</v>
+          </cell>
+          <cell r="AM35">
+            <v>2</v>
+          </cell>
+          <cell r="AN35">
+            <v>0</v>
+          </cell>
+          <cell r="AO35">
+            <v>3</v>
+          </cell>
+          <cell r="AP35">
+            <v>0</v>
+          </cell>
+          <cell r="AQ35" t="str">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,12 +1081,12 @@
       <selection sqref="A1:AO5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="41" width="10.6640625" customWidth="1"/>
+    <col min="1" max="41" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1336,7 @@
         <v>45995</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1306,7 +1461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1431,128 +1586,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="15.75">
       <c r="A5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
         <v>24</v>
       </c>
       <c r="B5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
         <v>24</v>
       </c>
       <c r="C5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
       <c r="D5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
       <c r="E5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
         <v>24</v>
       </c>
       <c r="F5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
         <v>22</v>
       </c>
       <c r="G5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
         <v>24</v>
       </c>
       <c r="H5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
         <v>24</v>
       </c>
       <c r="I5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
       <c r="J5" s="10">
-        <v>23</v>
+        <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
+        <v>18</v>
       </c>
       <c r="K5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
+        <v>11</v>
+      </c>
+      <c r="L5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
+        <v>24</v>
+      </c>
+      <c r="M5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
+        <v>24</v>
+      </c>
+      <c r="N5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
         <v>14</v>
       </c>
-      <c r="L5" s="10">
-        <v>24</v>
-      </c>
-      <c r="M5" s="10">
-        <v>24</v>
-      </c>
-      <c r="N5" s="10">
-        <v>16</v>
-      </c>
       <c r="O5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
+        <v>24</v>
+      </c>
+      <c r="P5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
+        <v>12</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
         <v>22</v>
       </c>
-      <c r="P5" s="10">
+      <c r="R5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
+        <v>22</v>
+      </c>
+      <c r="S5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
+        <v>22</v>
+      </c>
+      <c r="T5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
+        <v>24</v>
+      </c>
+      <c r="U5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
+        <v>24</v>
+      </c>
+      <c r="V5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
+        <v>24</v>
+      </c>
+      <c r="W5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
+        <v>22</v>
+      </c>
+      <c r="X5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
+        <v>13</v>
+      </c>
+      <c r="Y5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
+        <v>20</v>
+      </c>
+      <c r="Z5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
+        <v>22</v>
+      </c>
+      <c r="AA5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
+        <v>22</v>
+      </c>
+      <c r="AB5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
         <v>17</v>
       </c>
-      <c r="Q5" s="10">
-        <v>24</v>
-      </c>
-      <c r="R5" s="10">
+      <c r="AC5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
+        <v>20</v>
+      </c>
+      <c r="AD5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
         <v>22</v>
       </c>
-      <c r="S5" s="10">
+      <c r="AE5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
+        <v>20</v>
+      </c>
+      <c r="AF5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
+        <v>13</v>
+      </c>
+      <c r="AG5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
         <v>22</v>
       </c>
-      <c r="T5" s="10">
-        <v>24</v>
-      </c>
-      <c r="U5" s="10">
-        <v>24</v>
-      </c>
-      <c r="V5" s="10">
-        <v>24</v>
-      </c>
-      <c r="W5" s="10">
+      <c r="AH5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
+        <v>24</v>
+      </c>
+      <c r="AI5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
+        <v>24</v>
+      </c>
+      <c r="AK5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
         <v>22</v>
       </c>
-      <c r="X5" s="10">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>20</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>13</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>24</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>22</v>
-      </c>
       <c r="AL5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
         <v>24</v>
       </c>
       <c r="AM5" s="10">
-        <v>22</v>
+        <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
+        <v>21</v>
       </c>
       <c r="AN5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
         <v>24</v>
       </c>
       <c r="AO5" s="10">
+        <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
         <v>24</v>
       </c>
     </row>
@@ -1564,858 +1760,917 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DF6A47-9922-40E3-A5C5-3CD13C301FDA}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="10">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$C$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="21">
         <v>45394</v>
       </c>
-      <c r="E3" s="10">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$D$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="21">
         <v>45485</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$E$35)</f>
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21">
         <v>45394</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
         <v>45608</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$F$35)</f>
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="21">
         <v>45485</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="10">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$G$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="21">
         <v>45608</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$H$35)</f>
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$I$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="10">
+      <c r="D9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$J$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$K$35)</f>
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="F10" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="10">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="21">
+        <v>45658</v>
+      </c>
+      <c r="E11" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$L$35)</f>
+        <v>18</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10">
+      <c r="D12" s="21">
+        <v>45748</v>
+      </c>
+      <c r="E12" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$M$35)</f>
+        <v>11</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="21">
+        <v>45658</v>
+      </c>
+      <c r="D13" s="21">
+        <v>45870</v>
+      </c>
+      <c r="E13" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$N$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="21">
+        <v>45748</v>
+      </c>
+      <c r="D14" s="21">
+        <v>45962</v>
+      </c>
+      <c r="E14" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$O$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45870</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$P$35)</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="21">
+        <v>45962</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$Q$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$R$35)</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$S$35)</f>
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="14">
-        <v>45658</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="F18" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$T$35)</f>
+        <v>22</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="21">
+        <v>45659</v>
+      </c>
+      <c r="E20" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$U$35)</f>
+        <v>22</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="21">
+        <v>45779</v>
+      </c>
+      <c r="E21" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$V$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="21">
+        <v>45659</v>
+      </c>
+      <c r="D22" s="21">
+        <v>45871</v>
+      </c>
+      <c r="E22" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$W$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="21">
+        <v>45779</v>
+      </c>
+      <c r="D23" s="21">
+        <v>45993</v>
+      </c>
+      <c r="E23" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$X$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="21">
+        <v>45871</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$Y$35)</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="14">
-        <v>45748</v>
-      </c>
-      <c r="E12" s="10">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="14">
-        <v>45658</v>
-      </c>
-      <c r="D13" s="14">
-        <v>45870</v>
-      </c>
-      <c r="E13" s="10">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="14">
-        <v>45748</v>
-      </c>
-      <c r="D14" s="14">
-        <v>45962</v>
-      </c>
-      <c r="E14" s="10">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="21">
+        <v>45993</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$Z$35)</f>
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="14">
-        <v>45870</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="10">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="14">
-        <v>45962</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="F25" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AA$35)</f>
+        <v>20</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AB$35)</f>
         <v>22</v>
       </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="F27" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="21">
+        <v>45660</v>
+      </c>
+      <c r="E28" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AC$35)</f>
+        <v>22</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="21">
+        <v>45780</v>
+      </c>
+      <c r="E29" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AD$35)</f>
         <v>17</v>
       </c>
-      <c r="F17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="10">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="F29" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="21">
+        <v>45660</v>
+      </c>
+      <c r="D30" s="21">
+        <v>45872</v>
+      </c>
+      <c r="E30" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AE$35)</f>
+        <v>20</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="21">
+        <v>45780</v>
+      </c>
+      <c r="D31" s="21">
+        <v>45994</v>
+      </c>
+      <c r="E31" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AF$35)</f>
         <v>22</v>
       </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="14">
-        <v>45659</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="F31" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="21">
+        <v>45872</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AG$35)</f>
+        <v>20</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="21">
+        <v>45994</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AH$35)</f>
+        <v>13</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AI$35)</f>
         <v>22</v>
       </c>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="14">
-        <v>45779</v>
-      </c>
-      <c r="E21" s="10">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="14">
-        <v>45659</v>
-      </c>
-      <c r="D22" s="14">
-        <v>45871</v>
-      </c>
-      <c r="E22" s="10">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="F34" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AJ$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AK$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="21">
+        <v>45692</v>
+      </c>
+      <c r="E37" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AL$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="21">
+        <v>45781</v>
+      </c>
+      <c r="E38" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AM$35)</f>
+        <v>22</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="21">
+        <v>45692</v>
+      </c>
+      <c r="D39" s="21">
+        <v>45904</v>
+      </c>
+      <c r="E39" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AN$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75">
+      <c r="A40" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="21">
+        <v>45781</v>
+      </c>
+      <c r="D40" s="21">
+        <v>45995</v>
+      </c>
+      <c r="E40" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AO$35)</f>
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="14">
-        <v>45779</v>
-      </c>
-      <c r="D23" s="14">
-        <v>45993</v>
-      </c>
-      <c r="E23" s="10">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="14">
-        <v>45871</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="10">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="14">
-        <v>45993</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="10">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="10">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="10">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="14">
-        <v>45660</v>
-      </c>
-      <c r="E28" s="10">
-        <v>24</v>
-      </c>
-      <c r="F28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="14">
-        <v>45780</v>
-      </c>
-      <c r="E29" s="10">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="14">
-        <v>45660</v>
-      </c>
-      <c r="D30" s="14">
-        <v>45872</v>
-      </c>
-      <c r="E30" s="10">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="14">
-        <v>45780</v>
-      </c>
-      <c r="D31" s="14">
-        <v>45994</v>
-      </c>
-      <c r="E31" s="10">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="14">
-        <v>45872</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="10">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="14">
-        <v>45994</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="10">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="10">
-        <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="10">
-        <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="10">
-        <v>24</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="14">
-        <v>45692</v>
-      </c>
-      <c r="E37" s="10">
-        <v>24</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="14">
-        <v>45781</v>
-      </c>
-      <c r="E38" s="10">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="14">
-        <v>45692</v>
-      </c>
-      <c r="D39" s="14">
+      <c r="F40" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
+      <c r="A41" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="21">
         <v>45904</v>
       </c>
-      <c r="E39" s="10">
-        <v>24</v>
-      </c>
-      <c r="F39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="14">
-        <v>45781</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="D41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AP$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75">
+      <c r="A42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="21">
         <v>45995</v>
       </c>
-      <c r="E40" s="10">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="14">
-        <v>45904</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="10">
-        <v>24</v>
-      </c>
-      <c r="F41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="14">
-        <v>45995</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="10">
-        <v>24</v>
-      </c>
-      <c r="F42" t="s">
-        <v>113</v>
-      </c>
+      <c r="E42" s="19">
+        <f>24-('[1]Wildnis u. Panorama'!$AQ$35)</f>
+        <v>24</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
